--- a/scr/dataPreparation/datasets.xlsx
+++ b/scr/dataPreparation/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsha/GitHub/FeatureSelUsingEC/scr/dataPreparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628FF412-547F-3A41-88AE-D410B1BCEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79705933-6FE6-024A-BA34-3E8A96DD6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36420" yWindow="-580" windowWidth="26880" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="560" windowWidth="26880" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>2~64</t>
   </si>
   <si>
-    <t>2hour</t>
-  </si>
-  <si>
     <t>2g</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Breast_GSE22820_processed.csv</t>
   </si>
   <si>
-    <t>6hour</t>
-  </si>
-  <si>
     <t>4g</t>
   </si>
   <si>
@@ -118,10 +112,16 @@
     <t>GWAS</t>
   </si>
   <si>
-    <t>12hour</t>
-  </si>
-  <si>
     <t>8g</t>
+  </si>
+  <si>
+    <t>24hour</t>
+  </si>
+  <si>
+    <t>48hour</t>
+  </si>
+  <si>
+    <t>72hour</t>
   </si>
 </sst>
 </file>
@@ -140,14 +140,14 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,396 +522,396 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>500</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>1000</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>1000</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>1000</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>1000</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>1000</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>1000</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>1000</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>1000</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>1000</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
-        <v>32</v>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>1000</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/scr/dataPreparation/datasets.xlsx
+++ b/scr/dataPreparation/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsha/GitHub/FeatureSelUsingEC/scr/dataPreparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79705933-6FE6-024A-BA34-3E8A96DD6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A871E3-4988-484E-AF07-EE5C4738F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="560" windowWidth="26880" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="620" windowWidth="26880" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,10 +118,10 @@
     <t>24hour</t>
   </si>
   <si>
-    <t>48hour</t>
-  </si>
-  <si>
     <t>72hour</t>
+  </si>
+  <si>
+    <t>96hour</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -702,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -742,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -802,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -822,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -842,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -902,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
